--- a/SubRES_TMPL/SubRES_TRA_NO.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2686AB0B-9574-4A19-AEC6-5D0D736F8E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B1FFDB-E3F9-4D21-9871-68CC37667CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="311">
   <si>
     <t>Methanol=LHC in technology cathalogue</t>
   </si>
@@ -4801,6 +4801,9 @@
   </si>
   <si>
     <t>KRE_ship_NO</t>
+  </si>
+  <si>
+    <t>H2_COMP</t>
   </si>
 </sst>
 </file>
@@ -5165,7 +5168,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -5386,6 +5389,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -8106,7 +8110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D195BF64-9F46-4536-8385-3D462E705609}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="71" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -17470,8 +17474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5FAA1D-3717-457D-9B77-4AA5B285502A}">
   <dimension ref="C3:AF16"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17697,8 +17701,8 @@
       <c r="D11" t="s">
         <v>248</v>
       </c>
-      <c r="F11" t="s">
-        <v>156</v>
+      <c r="F11" s="100" t="s">
+        <v>310</v>
       </c>
       <c r="G11" t="s">
         <v>300</v>
@@ -17856,8 +17860,8 @@
         <v>249</v>
       </c>
       <c r="E14" s="80"/>
-      <c r="F14" s="80" t="s">
-        <v>156</v>
+      <c r="F14" s="100" t="s">
+        <v>310</v>
       </c>
       <c r="G14" t="s">
         <v>300</v>

--- a/SubRES_TMPL/SubRES_TRA_NO.xlsx
+++ b/SubRES_TMPL/SubRES_TRA_NO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Master thesis model 2\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A98EEC-575B-4B6C-BA42-C5606BBC0517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6C2A17-267A-42C7-A4C8-B8CC7384AE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="9" xr2:uid="{A69C0FD7-C65D-4750-AB22-1B7E2A0EC618}"/>
   </bookViews>
   <sheets>
     <sheet name="Transmission lines" sheetId="1" r:id="rId1"/>
@@ -7214,7 +7214,7 @@
   <dimension ref="C3:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q11" sqref="Q11:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7463,14 +7463,16 @@
         <v>1</v>
       </c>
       <c r="Q11" s="80">
-        <f>'JET FUEL'!J18</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R11" s="80">
         <f>'JET FUEL'!J19</f>
         <v>9.8872405206880537E-2</v>
       </c>
-      <c r="S11" s="80"/>
+      <c r="S11" s="80">
+        <f>'JET FUEL'!J18</f>
+        <v>18.136342649856541</v>
+      </c>
       <c r="T11" s="82"/>
       <c r="Y11" s="67" t="s">
         <v>224</v>
@@ -7541,12 +7543,15 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>'JET FUEL'!J18</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S13">
+        <f>'JET FUEL'!J18</f>
+        <v>18.136342649856541</v>
       </c>
       <c r="T13" s="76"/>
       <c r="Y13" s="70" t="s">
@@ -7616,12 +7621,15 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>Q13</f>
-        <v>18.136342649856541</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
         <f>R13</f>
         <v>9.8872405206880537E-2</v>
+      </c>
+      <c r="S15">
+        <f>S13</f>
+        <v>18.136342649856541</v>
       </c>
       <c r="Y15" t="s">
         <v>239</v>
@@ -16581,7 +16589,7 @@
   <dimension ref="C2:AF19"/>
   <sheetViews>
     <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14:Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17025,14 +17033,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'H2'!M20</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="80">
         <f>'H2'!M21</f>
         <v>0.62036278844551129</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'H2'!M20</f>
+        <v>124.07255768910225</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -17065,12 +17075,15 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>Q14</f>
-        <v>124.07255768910225</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>'H2'!N21</f>
         <v>0.44311627746107951</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>124.07255768910225</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -17104,12 +17117,15 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>'H2'!N20</f>
-        <v>88.623255492215904</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>R16</f>
         <v>0.44311627746107951</v>
+      </c>
+      <c r="S18">
+        <f>'H2'!N20</f>
+        <v>88.623255492215904</v>
       </c>
       <c r="T18" s="76"/>
     </row>
@@ -20663,7 +20679,7 @@
   <dimension ref="C3:AF19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q14" sqref="Q14:Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21116,14 +21132,16 @@
         <v>1</v>
       </c>
       <c r="Q14" s="80">
-        <f>'NH3'!M11</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R14" s="80">
         <f>'NH3'!N12</f>
         <v>0.51123688365384623</v>
       </c>
-      <c r="S14" s="80"/>
+      <c r="S14" s="80">
+        <f>'NH3'!M11</f>
+        <v>105.70687448860785</v>
+      </c>
       <c r="T14" s="82"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -21155,12 +21173,15 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <f>Q14</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R16">
         <f>R14</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S16">
+        <f>S14</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T16" s="76"/>
     </row>
@@ -21194,12 +21215,15 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <f>Q16</f>
-        <v>105.70687448860785</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R18">
         <f>R16</f>
         <v>0.51123688365384623</v>
+      </c>
+      <c r="S18">
+        <f>S16</f>
+        <v>105.70687448860785</v>
       </c>
       <c r="T18" s="76"/>
     </row>
@@ -23561,7 +23585,7 @@
   <dimension ref="C3:AF20"/>
   <sheetViews>
     <sheetView zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="Q11" sqref="Q11:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23877,15 +23901,17 @@
       <c r="P11" s="80">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <f>METHANOL!I18</f>
-        <v>39.212826970469628</v>
+      <c r="Q11" s="80">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R11">
         <f>METHANOL!I19</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S11" s="82"/>
+      <c r="S11">
+        <f>METHANOL!I18</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T11" s="82"/>
     </row>
     <row r="12" spans="3:32" x14ac:dyDescent="0.3">
@@ -23900,7 +23926,6 @@
         <v>4.9800418596028029E-4</v>
       </c>
       <c r="O12" s="77"/>
-      <c r="S12" s="76"/>
       <c r="T12" s="76"/>
     </row>
     <row r="13" spans="3:32" x14ac:dyDescent="0.3">
@@ -23918,14 +23943,16 @@
         <v>1</v>
       </c>
       <c r="Q13">
-        <f>Q11</f>
-        <v>39.212826970469628</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R13">
         <f>R11</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S13" s="76"/>
+      <c r="S13">
+        <f>S11</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T13" s="76"/>
     </row>
     <row r="14" spans="3:32" x14ac:dyDescent="0.3">
@@ -23942,7 +23969,6 @@
       </c>
       <c r="O14" s="77"/>
       <c r="P14" s="79"/>
-      <c r="S14" s="76"/>
       <c r="T14" s="76"/>
     </row>
     <row r="15" spans="3:32" x14ac:dyDescent="0.3">
@@ -23959,14 +23985,16 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <f>Q13</f>
-        <v>39.212826970469628</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="R15">
         <f>R13</f>
         <v>0.21377333856019948</v>
       </c>
-      <c r="S15" s="76"/>
+      <c r="S15">
+        <f>S13</f>
+        <v>39.212826970469628</v>
+      </c>
       <c r="T15" s="76"/>
     </row>
     <row r="16" spans="3:32" x14ac:dyDescent="0.3">
